--- a/ad05/grafiken/Mappe1.xlsx
+++ b/ad05/grafiken/Mappe1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis Sentler\Desktop\AD\ADP\ad\ad05\grafiken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ad\ad05\grafiken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,27 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>Counter</t>
+    <t>unsorted</t>
   </si>
   <si>
-    <t>Binomial</t>
+    <t>sorted</t>
   </si>
   <si>
-    <t>Sorted  Last</t>
+    <t>same</t>
   </si>
   <si>
-    <t>Median Pivot</t>
+    <t>LAST cmp</t>
+  </si>
+  <si>
+    <t>MEDIAN cmp</t>
+  </si>
+  <si>
+    <t>LAST swt</t>
+  </si>
+  <si>
+    <t>MEDIAN swt</t>
+  </si>
+  <si>
+    <t>RANDOM cmp</t>
+  </si>
+  <si>
+    <t>RANDOM swt</t>
+  </si>
+  <si>
+    <t>Sortiertes Array</t>
+  </si>
+  <si>
+    <t>Gleich-Elementiges Array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,13 +84,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +100,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -107,41 +133,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
+    <cellStyle name="Eingabe" xfId="2" builtinId="20"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -255,7 +280,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Sorted Array</c:v>
+            <c:v>Sortiertes Array</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -283,23 +308,20 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$36</c:f>
+              <c:f>Tabelle1!$A$3:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -307,24 +329,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$36</c:f>
+              <c:f>Tabelle1!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>4995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>198</c:v>
+                  <c:v>504495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19998</c:v>
+                  <c:v>50499495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -340,7 +359,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Randomised Array</c:v>
+            <c:v>Unsortiertes Array</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -368,23 +387,20 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$36</c:f>
+              <c:f>Tabelle1!$A$3:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -392,24 +408,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$36</c:f>
+              <c:f>Tabelle1!$C$3:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>513</c:v>
+                  <c:v>11511</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11573</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>562397</c:v>
+                  <c:v>164707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -437,6 +450,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -480,6 +494,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -598,6 +613,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -678,6 +694,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -789,6 +806,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -828,7 +846,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Sorted Array</c:v>
+            <c:v>Sortiertes Array</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -856,23 +874,20 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$41:$A$46</c:f>
+              <c:f>Tabelle1!$F$3:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -880,24 +895,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$41:$B$46</c:f>
+              <c:f>Tabelle1!$G$3:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>360</c:v>
+                  <c:v>21316</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5048</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>69017</c:v>
+                  <c:v>666765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -913,7 +925,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Unsorted Array</c:v>
+            <c:v>Unsortiertes Array</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -941,23 +953,20 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$41:$A$46</c:f>
+              <c:f>Tabelle1!$F$3:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -965,24 +974,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$41:$C$46</c:f>
+              <c:f>Tabelle1!$H$3:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>556</c:v>
+                  <c:v>9899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10796</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>561026</c:v>
+                  <c:v>147157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,6 +997,85 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-95F3-45DC-9413-E4A75E8A5706}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Gleich-Elementiges Array</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>504495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50499495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-191D-4C5F-B39B-CD370E47E9AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1010,6 +1095,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1053,6 +1139,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1171,6 +1258,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1251,6 +1339,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1358,6 +1447,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1397,7 +1487,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Sorted Array</c:v>
+            <c:v>Sortiertes Array</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1425,23 +1515,20 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$52:$A$56</c:f>
+              <c:f>Tabelle1!$A$11:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1449,24 +1536,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$52:$B$56</c:f>
+              <c:f>Tabelle1!$B$11:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99</c:v>
+                  <c:v>2214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9999</c:v>
+                  <c:v>22212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,7 +1566,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Unsorted Array</c:v>
+            <c:v>Unsortiertes Array</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1510,23 +1594,20 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$52:$A$56</c:f>
+              <c:f>Tabelle1!$A$11:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1534,24 +1615,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$52:$C$56</c:f>
+              <c:f>Tabelle1!$C$11:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>165</c:v>
+                  <c:v>7521</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2385</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25677</c:v>
+                  <c:v>101731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,6 +1657,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1622,6 +1701,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1740,6 +1820,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1820,6 +1901,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1927,6 +2009,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1958,7 +2041,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10204847222222223"/>
+          <c:y val="0.10369314814814815"/>
+          <c:w val="0.85138486111111111"/>
+          <c:h val="0.75454092592592592"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1966,7 +2059,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Sorted Array</c:v>
+            <c:v>Sortiertes Array</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1994,23 +2087,20 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$75:$A$79</c:f>
+              <c:f>Tabelle1!$F$11:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2018,24 +2108,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$75:$B$79</c:f>
+              <c:f>Tabelle1!$G$11:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>17505</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5904</c:v>
+                  <c:v>539525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2051,7 +2138,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Unsorted Array</c:v>
+            <c:v>Unsortiertes Array</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2079,23 +2166,20 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$75:$A$79</c:f>
+              <c:f>Tabelle1!$F$11:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2103,24 +2187,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$75:$C$79</c:f>
+              <c:f>Tabelle1!$H$11:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146</c:v>
+                  <c:v>6138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2360</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25247</c:v>
+                  <c:v>84396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,6 +2210,85 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3E67-4C7B-97BA-3E2978F29EF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Gleiche-Elementiges Array</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$11:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$11:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>506709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50521707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8755-4485-8150-C19677C5AAE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2148,6 +2308,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2191,6 +2352,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2309,6 +2471,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2389,6 +2552,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2437,6 +2601,1230 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>Pivot = Random</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44317568918117445"/>
+          <c:y val="3.1953514840886592E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11097541666666667"/>
+          <c:y val="0.14132148148148149"/>
+          <c:w val="0.80153018372703411"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sortiertes Array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$21:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$21:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BB5-40BD-BC49-303FB4318893}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gleich-Elementiges Array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$21:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>504495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50499495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8BB5-40BD-BC49-303FB4318893}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="474175856"/>
+        <c:axId val="300335648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="474175856"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300335648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="300335648"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Counter Compares</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474175856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Pivot = Random</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sortiertes Array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$28:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$28:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7817</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C3B8-4A9F-AA31-5550E34C6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gleich-Elementiges Array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$28:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>506709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50521707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C3B8-4A9F-AA31-5550E34C6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sortiertes Array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$28:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$28:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7817</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C3B8-4A9F-AA31-5550E34C6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gleich-Elementiges Array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$28:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>506709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50521707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C3B8-4A9F-AA31-5550E34C6C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="201141568"/>
+        <c:axId val="201155344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="201141568"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="201155344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="201155344"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Counter Switches</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="201141568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2615,6 +4003,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4679,20 +6107,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>274863</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>182333</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>179614</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>87082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>616863</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57833</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>521614</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>153082</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4719,16 +6663,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>244930</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>62591</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>149680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>144233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>586930</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>128591</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>491680</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19733</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4755,16 +6699,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>595992</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>21769</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>187778</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>130625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>175992</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>87769</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>529778</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>6125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4791,16 +6735,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>382821</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>65999</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>641356</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>161250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4822,6 +6766,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>709393</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15429</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>106822</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5092,496 +7112,464 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>100</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4995</v>
+      </c>
+      <c r="C4" s="4">
+        <v>663</v>
+      </c>
+      <c r="F4" s="5">
+        <v>100</v>
+      </c>
+      <c r="G4" s="5">
+        <v>680</v>
+      </c>
+      <c r="H4" s="4">
+        <v>564</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="5">
+        <v>504495</v>
+      </c>
+      <c r="C5" s="4">
+        <v>11511</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="5">
+        <v>21316</v>
+      </c>
+      <c r="H5" s="4">
+        <v>9899</v>
+      </c>
+      <c r="I5" s="4">
+        <v>504495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="5">
+        <v>50499495</v>
+      </c>
+      <c r="C6" s="4">
+        <v>164707</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="5">
+        <v>666765</v>
+      </c>
+      <c r="H6" s="4">
+        <v>147157</v>
+      </c>
+      <c r="I6" s="4">
+        <v>50499495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>27</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4">
+        <v>28</v>
+      </c>
+      <c r="I11" s="4">
+        <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>100</v>
+      </c>
+      <c r="B12" s="5">
+        <v>216</v>
+      </c>
+      <c r="C12" s="4">
+        <v>529</v>
+      </c>
+      <c r="F12" s="5">
+        <v>100</v>
+      </c>
+      <c r="G12" s="5">
+        <v>589</v>
+      </c>
+      <c r="H12" s="4">
+        <v>454</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2214</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7521</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="5">
+        <v>17505</v>
+      </c>
+      <c r="H13" s="4">
+        <v>6138</v>
+      </c>
+      <c r="I13" s="4">
+        <v>506709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="5">
+        <v>22212</v>
+      </c>
+      <c r="C14" s="4">
+        <v>101731</v>
+      </c>
+      <c r="F14" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G14" s="5">
+        <v>539525</v>
+      </c>
+      <c r="H14" s="4">
+        <v>84396</v>
+      </c>
+      <c r="I14" s="4">
+        <v>50521707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>27</v>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>100</v>
       </c>
-      <c r="B5" s="2">
-        <v>198</v>
-      </c>
-      <c r="C5">
-        <v>513</v>
+      <c r="B22" s="4">
+        <v>687</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4995</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>1000</v>
       </c>
-      <c r="B6" s="2">
-        <v>1998</v>
-      </c>
-      <c r="C6">
-        <v>11573</v>
+      <c r="B23" s="4">
+        <v>11889</v>
+      </c>
+      <c r="C23" s="4">
+        <v>504495</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>10000</v>
       </c>
-      <c r="B7" s="2">
-        <v>19998</v>
-      </c>
-      <c r="C7">
-        <v>562397</v>
+      <c r="B24" s="4">
+        <v>171137</v>
+      </c>
+      <c r="C24" s="4">
+        <v>50499495</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>10</v>
+      </c>
+      <c r="B28" s="4">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4">
+        <v>63</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>100</v>
+      </c>
+      <c r="B29" s="4">
+        <v>408</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5211</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B30" s="4">
+        <v>7817</v>
+      </c>
+      <c r="C30" s="4">
+        <v>506709</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B31" s="4">
+        <v>93955</v>
+      </c>
+      <c r="C31" s="4">
+        <v>50521707</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>1</v>
-      </c>
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>10</v>
-      </c>
-      <c r="B42" s="2">
-        <v>21</v>
-      </c>
-      <c r="C42">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>100</v>
-      </c>
-      <c r="B43" s="2">
-        <v>360</v>
-      </c>
-      <c r="C43">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B44" s="2">
-        <v>5048</v>
-      </c>
-      <c r="C44">
-        <v>10796</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>10000</v>
-      </c>
-      <c r="B45" s="2">
-        <v>69017</v>
-      </c>
-      <c r="C45">
-        <v>561026</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="8"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>1</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>10</v>
-      </c>
-      <c r="B53" s="2">
-        <v>9</v>
-      </c>
-      <c r="C53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>100</v>
-      </c>
-      <c r="B54" s="2">
-        <v>99</v>
-      </c>
-      <c r="C54">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B55" s="2">
-        <v>999</v>
-      </c>
-      <c r="C55">
-        <v>2385</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>10000</v>
-      </c>
-      <c r="B56" s="2">
-        <v>9999</v>
-      </c>
-      <c r="C56">
-        <v>25677</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="4"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>1</v>
-      </c>
-      <c r="B75" s="2">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>10</v>
-      </c>
-      <c r="B76" s="2">
-        <v>6</v>
-      </c>
-      <c r="C76">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>100</v>
-      </c>
-      <c r="B77" s="2">
-        <v>63</v>
-      </c>
-      <c r="C77">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B78" s="2">
-        <v>511</v>
-      </c>
-      <c r="C78">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>10000</v>
-      </c>
-      <c r="B79" s="2">
-        <v>5904</v>
-      </c>
-      <c r="C79">
-        <v>25247</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
@@ -5674,10 +7662,13 @@
       <c r="B102" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A50:B50"/>
+  <mergeCells count="6">
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
